--- a/biology/Zoologie/Carathea/Carathea.xlsx
+++ b/biology/Zoologie/Carathea/Carathea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carathea est un genre d'araignées aranéomorphes de la famille des Malkaridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carathea est un genre d'araignées aranéomorphes de la famille des Malkaridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Carathea a été créé en 1986 par l'arachnologiste australien Russell J. Moran (d) avec pour espèce type Carathea parawea[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Carathea a été créé en 1986 par l'arachnologiste australien Russell J. Moran (d) avec pour espèce type Carathea parawea.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Tasmanie en Australie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Tasmanie en Australie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 15.5, 12/11/2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 15.5, 12/11/2014) :
 Carathea miyali Moran, 1986
 Carathea parawea Moran, 1986 - espèce type</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Carathea, dérive d'un terme aborigène désignant la sœur[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Carathea, dérive d'un terme aborigène désignant la sœur.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) R. J. Moran, « The Sternodidae (Araneae: Araneomorpha), a new family of spiders from eastern Australia », Bulletin of the British Arachnological Society, British Arachnological Society (d), vol. 7, no 3,‎ 1986, p. 87-96 (ISSN 0524-4994, OCLC 01537128, lire en ligne)</t>
         </is>
